--- a/story/Story Summarization 剧情简述/Main Story and Others 主线剧情等/Operator Record 干员密录/story_noirc_1_1.xlsx
+++ b/story/Story Summarization 剧情简述/Main Story and Others 主线剧情等/Operator Record 干员密录/story_noirc_1_1.xlsx
@@ -31,7 +31,7 @@
     <t>结束一天工作，喊上几名好兄弟，打牌，喝酒，八卦——黑角最喜欢这样平平常常的日子。</t>
   </si>
   <si>
-    <t xml:space="preserve">结束一天工作，喊上几名好兄弟，打牌，喝酒，八卦——黑角最喜欢这样平平常常的日子。
+    <t xml:space="preserve">仕事終わりに仲間を呼んで、トランプとゴシップを肴に飲んでは夜を満喫する――ノイルホーンはそんな他愛無い日々が好きだ。
 </t>
   </si>
   <si>
